--- a/resources/БАЗА ДАННЫХ/litefinance/excel/FR_9999.xlsx
+++ b/resources/БАЗА ДАННЫХ/litefinance/excel/FR_9999.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:H50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +486,9 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>0,3</t>
-        </is>
-      </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>GOLD</t>
+          <t>SaiGon_Trading</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -503,34 +498,34 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2023.11.27 18:12</t>
+          <t>2023.11.28 02:40</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2009.46</t>
+          <t>-83.81%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2023.11.27 19:47</t>
+          <t>2023.11.28 02:41</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2013.14</t>
+          <t>-83.81%</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>-112,50 USD</t>
+          <t>0,00 USD</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>0,2</t>
+          <t>0,3</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -545,12 +540,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2023.11.27 18:02</t>
+          <t>2023.11.27 18:12</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2010.89</t>
+          <t>2009.46</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -565,14 +560,14 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>-46,40 USD</t>
+          <t>-112,50 USD</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -587,12 +582,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2023.11.27 17:59</t>
+          <t>2023.11.27 18:02</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2011.18</t>
+          <t>2010.89</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -607,14 +602,14 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>-152,25 USD</t>
+          <t>-46,40 USD</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>0,3</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -629,27 +624,27 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2023.11.27 17:08</t>
+          <t>2023.11.27 17:59</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2008.06</t>
+          <t>2011.18</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2023.11.27 17:58</t>
+          <t>2023.11.27 19:47</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2011.26</t>
+          <t>2013.14</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>-98,10 USD</t>
+          <t>-152,25 USD</t>
         </is>
       </c>
     </row>
@@ -676,7 +671,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2008.03</t>
+          <t>2008.06</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -691,7 +686,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>-99,00 USD</t>
+          <t>-98,10 USD</t>
         </is>
       </c>
     </row>
@@ -713,12 +708,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2023.11.27 17:02</t>
+          <t>2023.11.27 17:08</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2009.07</t>
+          <t>2008.03</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -733,7 +728,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>-67,80 USD</t>
+          <t>-99,00 USD</t>
         </is>
       </c>
     </row>
@@ -755,12 +750,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2023.11.27 16:43</t>
+          <t>2023.11.27 17:02</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2010.7</t>
+          <t>2009.07</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -775,14 +770,14 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>-18,90 USD</t>
+          <t>-67,80 USD</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>0,3</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -797,12 +792,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2023.11.27 16:21</t>
+          <t>2023.11.27 16:43</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2011.98</t>
+          <t>2010.7</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -817,14 +812,14 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>32,50 USD</t>
+          <t>-18,90 USD</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -839,12 +834,12 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2023.11.27 16:18</t>
+          <t>2023.11.27 16:21</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2013.27</t>
+          <t>2011.98</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -859,14 +854,14 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>388,00 USD</t>
+          <t>32,50 USD</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1,1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -881,12 +876,12 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2023.11.27 17:40</t>
+          <t>2023.11.27 16:18</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2005.88</t>
+          <t>2013.27</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -901,135 +896,135 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>-599,50 USD</t>
+          <t>388,00 USD</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>1,1</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>GOLD</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2023.11.27 17:40</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2005.88</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2023.11.27 17:58</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2011.26</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>-599,50 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
           <t>0,3</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B13" t="inlineStr">
         <is>
           <t>GOLD</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>sell</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>2023.11.27 17:16</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>2007.92</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>2023.11.27 17:58</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>2011.26</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>-102,30 USD</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="B13" t="inlineStr">
+    <row r="14">
+      <c r="B14" t="inlineStr">
         <is>
           <t>SaiGon_Trading</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>sell</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>2023.11.27 16:17</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>-78.67%</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>2023.11.27 16:18</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>-78.67%</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>0,00 USD</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>0,5</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>GOLD</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>sell</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>2023.11.27 16:05</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>2011.24</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>2023.11.27 16:17</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>2013.15</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>-99,00 USD</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1049,7 +1044,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2012.36</t>
+          <t>2011.24</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1064,135 +1059,135 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>-172,00 USD</t>
+          <t>-99,00 USD</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>GOLD</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2023.11.27 16:05</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>2012.36</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2023.11.27 16:17</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2013.15</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>-172,00 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
           <t>1,1</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B17" t="inlineStr">
         <is>
           <t>GOLD</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>sell</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>2023.11.27 16:06</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>2008.99</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>2023.11.27 16:17</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>2013.15</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>-465,30 USD</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="B17" t="inlineStr">
+    <row r="18">
+      <c r="B18" t="inlineStr">
         <is>
           <t>SaiGon_Trading</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>sell</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>2023.11.27 16:02</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>-78.67%</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>2023.11.27 16:04</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>-78.67%</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>0,00 USD</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>GOLD</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>sell</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>2023.11.27 10:18</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>2014.76</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2023.11.27 16:01</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>2015.06</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>-37,00 USD</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1,1</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1207,12 +1202,12 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2023.11.27 14:41</t>
+          <t>2023.11.27 10:18</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2010.97</t>
+          <t>2014.76</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1227,14 +1222,14 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>-457,60 USD</t>
+          <t>-37,00 USD</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>0,25</t>
+          <t>1,1</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1249,12 +1244,12 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2023.11.27 11:10</t>
+          <t>2023.11.27 14:41</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2013.22</t>
+          <t>2010.97</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1269,14 +1264,14 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>-47,75 USD</t>
+          <t>-457,60 USD</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>0,25</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1291,12 +1286,12 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2023.11.27 11:09</t>
+          <t>2023.11.27 11:10</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2013.25</t>
+          <t>2013.22</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1311,7 +1306,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>-94,00 USD</t>
+          <t>-47,75 USD</t>
         </is>
       </c>
     </row>
@@ -1333,12 +1328,12 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2023.11.27 11:05</t>
+          <t>2023.11.27 11:09</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2014.16</t>
+          <t>2013.25</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1353,7 +1348,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>-48,50 USD</t>
+          <t>-94,00 USD</t>
         </is>
       </c>
     </row>
@@ -1375,12 +1370,12 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2023.11.27 10:19</t>
+          <t>2023.11.27 11:05</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2014.8</t>
+          <t>2014.16</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1395,86 +1390,91 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>-16,50 USD</t>
+          <t>-48,50 USD</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
+          <t>0,5</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>GOLD</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2023.11.27 10:19</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>2014.8</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2023.11.27 16:01</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>2015.06</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>-16,50 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
           <t>0,2</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B25" t="inlineStr">
         <is>
           <t>BNBUSD</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>sell</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>2023.11.27 10:48</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>229</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>2023.11.27 11:06</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>228.7</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>3,71 USD</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>SaiGon_Trading</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>sell</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>2023.11.27 10:15</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>-52.66%</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>2023.11.27 10:16</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>-52.66%</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>0,00 USD</t>
         </is>
       </c>
     </row>
@@ -1491,22 +1491,22 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2023.11.27 02:50</t>
+          <t>2023.11.27 10:15</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>-52.66%</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2023.11.27 02:51</t>
+          <t>2023.11.27 10:16</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>-52.66%</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1518,7 +1518,7 @@
     <row r="27">
       <c r="B27" t="inlineStr">
         <is>
-          <t>Edward Trading</t>
+          <t>SaiGon_Trading</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1528,22 +1528,22 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2023.11.17 12:47</t>
+          <t>2023.11.27 02:50</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>269.76%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2023.11.17 12:48</t>
+          <t>2023.11.27 02:51</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>269.76%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1565,22 +1565,22 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2023.11.16 17:15</t>
+          <t>2023.11.17 12:47</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>260.98%</t>
+          <t>269.76%</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2023.11.16 17:15</t>
+          <t>2023.11.17 12:48</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>260.98%</t>
+          <t>269.76%</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1602,22 +1602,22 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2023.11.13 03:14</t>
+          <t>2023.11.16 17:15</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>214.69%</t>
+          <t>260.98%</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2023.11.13 03:15</t>
+          <t>2023.11.16 17:15</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>214.69%</t>
+          <t>260.98%</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1639,7 +1639,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2023.11.10 17:28</t>
+          <t>2023.11.13 03:14</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1649,7 +1649,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2023.11.10 17:29</t>
+          <t>2023.11.13 03:15</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -1676,22 +1676,22 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2023.11.10 16:31</t>
+          <t>2023.11.10 17:28</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>193.22%</t>
+          <t>214.69%</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2023.11.10 16:32</t>
+          <t>2023.11.10 17:29</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>193.22%</t>
+          <t>214.69%</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1713,22 +1713,22 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2023.11.10 15:45</t>
+          <t>2023.11.10 16:31</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>204.55%</t>
+          <t>193.22%</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2023.11.10 15:46</t>
+          <t>2023.11.10 16:32</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>204.55%</t>
+          <t>193.22%</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1750,22 +1750,22 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2023.11.09 06:12</t>
+          <t>2023.11.10 15:45</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>193.85%</t>
+          <t>204.55%</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2023.11.09 06:13</t>
+          <t>2023.11.10 15:46</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>193.85%</t>
+          <t>204.55%</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1777,7 +1777,7 @@
     <row r="34">
       <c r="B34" t="inlineStr">
         <is>
-          <t>VTboss</t>
+          <t>Edward Trading</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1787,22 +1787,22 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2023.10.17 04:54</t>
+          <t>2023.11.09 06:12</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>146.07%</t>
+          <t>193.85%</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2023.10.17 04:54</t>
+          <t>2023.11.09 06:13</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>146.07%</t>
+          <t>193.85%</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1824,22 +1824,22 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2023.10.17 02:49</t>
+          <t>2023.10.17 04:54</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>145.78%</t>
+          <t>146.07%</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2023.10.17 02:50</t>
+          <t>2023.10.17 04:54</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>145.78%</t>
+          <t>146.07%</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -1851,7 +1851,7 @@
     <row r="36">
       <c r="B36" t="inlineStr">
         <is>
-          <t>BOSS_S</t>
+          <t>VTboss</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1861,22 +1861,22 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2023.10.16 14:46</t>
+          <t>2023.10.17 02:49</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>-99.99%</t>
+          <t>145.78%</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2023.10.16 14:46</t>
+          <t>2023.10.17 02:50</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>-99.99%</t>
+          <t>145.78%</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -1888,7 +1888,7 @@
     <row r="37">
       <c r="B37" t="inlineStr">
         <is>
-          <t>VTboss</t>
+          <t>BOSS_S</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1898,22 +1898,22 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2023.10.16 10:17</t>
+          <t>2023.10.16 14:46</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>150.04%</t>
+          <t>-99.99%</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2023.10.16 10:17</t>
+          <t>2023.10.16 14:46</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>150.04%</t>
+          <t>-99.99%</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -1925,7 +1925,7 @@
     <row r="38">
       <c r="B38" t="inlineStr">
         <is>
-          <t>BelieveToMI</t>
+          <t>VTboss</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1935,22 +1935,22 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2023.10.16 05:20</t>
+          <t>2023.10.16 10:17</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>821.66%</t>
+          <t>150.04%</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2023.10.16 05:21</t>
+          <t>2023.10.16 10:17</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>821.66%</t>
+          <t>150.04%</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -1962,7 +1962,7 @@
     <row r="39">
       <c r="B39" t="inlineStr">
         <is>
-          <t>Lucas_Capital</t>
+          <t>BelieveToMI</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1972,22 +1972,22 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2023.10.13 17:33</t>
+          <t>2023.10.16 05:20</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>44.37%</t>
+          <t>821.66%</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2023.10.13 17:33</t>
+          <t>2023.10.16 05:21</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>44.37%</t>
+          <t>821.66%</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -1999,7 +1999,7 @@
     <row r="40">
       <c r="B40" t="inlineStr">
         <is>
-          <t>BOSS_S</t>
+          <t>Lucas_Capital</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2009,22 +2009,22 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2023.10.04 16:21</t>
+          <t>2023.10.13 17:33</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>-88.2%</t>
+          <t>44.37%</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2023.10.04 16:22</t>
+          <t>2023.10.13 17:33</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>-88.2%</t>
+          <t>44.37%</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2036,7 +2036,7 @@
     <row r="41">
       <c r="B41" t="inlineStr">
         <is>
-          <t>SKY _ FX</t>
+          <t>BOSS_S</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2046,34 +2046,34 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2023.04.10 16:57</t>
+          <t>2023.10.04 16:21</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>-14.7%</t>
+          <t>-88.2%</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2023.05.17 10:28</t>
+          <t>2023.10.04 16:22</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>-8.39%</t>
+          <t>-88.2%</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>779,12 USD</t>
+          <t>0,00 USD</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="B42" t="inlineStr">
         <is>
-          <t>KingLe</t>
+          <t>SKY _ FX</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2083,12 +2083,12 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2023.04.10 17:09</t>
+          <t>2023.04.10 16:57</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>605.31%</t>
+          <t>-14.7%</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2098,19 +2098,19 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>775.56%</t>
+          <t>-8.39%</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>1 174,97 USD</t>
+          <t>779,12 USD</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="B43" t="inlineStr">
         <is>
-          <t>TK_Trading</t>
+          <t>KingLe</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2120,34 +2120,34 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2023.03.22 08:11</t>
+          <t>2023.04.10 17:09</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>4.45%</t>
+          <t>605.31%</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2023.04.19 13:03</t>
+          <t>2023.05.17 10:28</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>-97.48%</t>
+          <t>775.56%</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>-861,94 USD</t>
+          <t>1 174,97 USD</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="B44" t="inlineStr">
         <is>
-          <t>SKY _ FX</t>
+          <t>TK_Trading</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2157,34 +2157,34 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2023.03.13 10:12</t>
+          <t>2023.03.22 08:11</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>-0.73%</t>
+          <t>4.45%</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2023.04.10 17:00</t>
+          <t>2023.04.19 13:03</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>-14.7%</t>
+          <t>-97.48%</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>130,23 USD</t>
+          <t>-861,94 USD</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="B45" t="inlineStr">
         <is>
-          <t>KingLe</t>
+          <t>SKY _ FX</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2194,34 +2194,34 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2023.04.10 16:49</t>
+          <t>2023.03.13 10:12</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>604.19%</t>
+          <t>-0.73%</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2023.04.10 16:50</t>
+          <t>2023.04.10 17:00</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>604.19%</t>
+          <t>-14.7%</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>0,00 USD</t>
+          <t>130,23 USD</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="B46" t="inlineStr">
         <is>
-          <t>PatrickGroup</t>
+          <t>KingLe</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2231,34 +2231,34 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2023.03.07 04:48</t>
+          <t>2023.04.10 16:49</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>271.52%</t>
+          <t>604.19%</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2023.04.07 04:42</t>
+          <t>2023.04.10 16:50</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>-99.64%</t>
+          <t>604.19%</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>-199,73 USD</t>
+          <t>0,00 USD</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="B47" t="inlineStr">
         <is>
-          <t>TK_Trading</t>
+          <t>PatrickGroup</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2268,34 +2268,34 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2023.03.13 10:11</t>
+          <t>2023.03.07 04:48</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>1.76%</t>
+          <t>271.52%</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2023.03.22 08:10</t>
+          <t>2023.04.07 04:42</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>4.45%</t>
+          <t>-99.64%</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>212,61 USD</t>
+          <t>-199,73 USD</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="B48" t="inlineStr">
         <is>
-          <t>Hoang_Nguyen_93</t>
+          <t>TK_Trading</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2305,62 +2305,99 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2023.03.07 04:47</t>
+          <t>2023.03.13 10:11</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>16.22%</t>
+          <t>1.76%</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2023.03.21 03:24</t>
+          <t>2023.03.22 08:10</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>-96.04%</t>
+          <t>4.45%</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>-192,10 USD</t>
+          <t>212,61 USD</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="B49" t="inlineStr">
         <is>
+          <t>Hoang_Nguyen_93</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2023.03.07 04:47</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>16.22%</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2023.03.21 03:24</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>-96.04%</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>-192,10 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="B50" t="inlineStr">
+        <is>
           <t>SKY _ FX</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>sell</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>2023.03.01 12:03</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>0.19%</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>2023.03.12 23:20</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>-0.48%</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>-206,27 USD</t>
         </is>
